--- a/data_VP.xlsx
+++ b/data_VP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Place</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>ACov</t>
+  </si>
+  <si>
+    <t>capVPAir</t>
+  </si>
+  <si>
+    <t>capVPTop</t>
   </si>
 </sst>
 </file>
@@ -509,15 +515,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AS7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="21" max="21" width="9.44140625" customWidth="1"/>
     <col min="23" max="23" width="12.109375" customWidth="1"/>
     <col min="25" max="27" width="9.109375" style="1"/>
@@ -533,657 +540,663 @@
     <col min="41" max="41" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D2" s="1">
         <v>1.2250000000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>6.2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>0.1</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>500000</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="1">
         <v>14000</v>
       </c>
-      <c r="K2" s="1">
+      <c r="M2" s="1">
         <v>1.67</v>
       </c>
-      <c r="L2" s="1">
+      <c r="N2" s="1">
         <v>0.3</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="S2" s="1">
         <f>6.2+278</f>
         <v>284.2</v>
       </c>
-      <c r="R2" s="1">
+      <c r="T2" s="1">
         <f>6.2+278</f>
         <v>284.2</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Z2" s="1">
         <v>9.81</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="AA2" s="1">
         <v>1</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AB2" s="1">
         <v>1E-4</v>
       </c>
-      <c r="AA2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD2" s="1">
         <v>0.4</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AE2" s="1">
         <v>0.4</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AF2" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AG2" s="1">
         <v>2.9</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AH2" s="1">
         <v>0.75</v>
       </c>
-      <c r="AG2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ2" s="1">
         <v>0</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AK2" s="1">
         <v>0.12</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AL2" s="1">
         <v>0.4</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AM2" s="1">
         <v>3</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AN2" s="1">
         <v>0.1</v>
       </c>
-      <c r="AM2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AN2" s="1">
+      <c r="AO2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP2" s="1">
         <v>0.4</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AQ2" s="1">
         <v>0.68</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AR2" s="1">
         <v>1.86</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AS2" s="1">
         <v>18000</v>
       </c>
     </row>
-    <row r="3" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="D3" s="1">
         <v>1.22</v>
       </c>
-      <c r="D3" s="1">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>5.7</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>0.9</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>500000</v>
       </c>
-      <c r="J3" s="1">
+      <c r="L3" s="1">
         <v>14000</v>
       </c>
-      <c r="K3" s="1">
+      <c r="M3" s="1">
         <v>1.67</v>
       </c>
-      <c r="L3" s="1">
+      <c r="N3" s="1">
         <v>0.7</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="S3" s="1">
         <f xml:space="preserve"> 5.3+273</f>
         <v>278.3</v>
       </c>
-      <c r="R3" s="1">
+      <c r="T3" s="1">
         <f xml:space="preserve"> 5.3+273</f>
         <v>278.3</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Z3" s="1">
         <v>9.81</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="AA3" s="1">
         <v>1</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AB3" s="1">
         <v>1E-4</v>
       </c>
-      <c r="AA3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AB3" s="1">
+      <c r="AC3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD3" s="1">
         <v>0.6</v>
       </c>
-      <c r="AC3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AD3" s="1">
+      <c r="AE3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF3" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AG3" s="1">
         <v>3.3</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AH3" s="1">
         <v>0.75</v>
       </c>
-      <c r="AG3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AH3" s="1">
+      <c r="AI3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ3" s="1">
         <v>0</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AK3" s="1">
         <v>0.12</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AL3" s="1">
         <v>0.45</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AM3" s="1">
         <v>3</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AN3" s="1">
         <v>0.1</v>
       </c>
-      <c r="AM3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AN3" s="1">
+      <c r="AO3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP3" s="1">
         <v>0.6</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AQ3" s="1">
         <v>0.68</v>
       </c>
-      <c r="AP3" s="1">
+      <c r="AR3" s="1">
         <v>1.86</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AS3" s="1">
         <v>18000</v>
       </c>
     </row>
-    <row r="4" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="D4" s="1">
         <v>1.32</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <v>2.5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>10</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>0.3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>500000</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>78000</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>1.67</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="1">
         <v>0.4</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="S4" s="1">
         <f xml:space="preserve"> 6+273</f>
         <v>279</v>
       </c>
-      <c r="R4" s="1">
+      <c r="T4" s="1">
         <f xml:space="preserve"> 6+273</f>
         <v>279</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Z4" s="1">
         <v>9.81</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AA4" s="1">
         <v>1</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AB4" s="1">
         <v>1E-4</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AC4" s="1">
         <v>0.7</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AD4" s="1">
         <v>0.65</v>
       </c>
-      <c r="AC4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AD4" s="1">
+      <c r="AE4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF4" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AG4" s="1">
         <v>2.9</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AH4" s="1">
         <v>0.75</v>
       </c>
-      <c r="AG4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AH4" s="1">
+      <c r="AI4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ4" s="1">
         <v>0</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AK4" s="1">
         <v>0.12</v>
       </c>
-      <c r="AJ4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AK4" s="1">
+      <c r="AL4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AM4" s="1">
         <v>3</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AN4" s="1">
         <v>0.18</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AO4" s="1">
         <v>0.7</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AP4" s="1">
         <v>0.65</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AQ4" s="1">
         <v>0.97</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AR4" s="1">
         <v>1.86</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AS4" s="1">
         <v>90000</v>
       </c>
     </row>
-    <row r="5" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="D5" s="1">
         <v>1.3149999999999999</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>12.8</v>
       </c>
-      <c r="H5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="1">
         <v>500000</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>78000</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <v>1.67</v>
       </c>
-      <c r="L5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="1">
+      <c r="N5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="1">
         <f>6.8+273</f>
         <v>279.8</v>
       </c>
-      <c r="R5" s="1">
+      <c r="T5" s="1">
         <f>6.8+273</f>
         <v>279.8</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Z5" s="1">
         <v>9.81</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AA5" s="1">
         <v>1</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AB5" s="1">
         <v>1E-4</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AC5" s="1">
         <v>0.7</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AD5" s="1">
         <v>0.7</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AE5" s="1">
         <v>0.86</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AF5" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AG5" s="1">
         <v>2.9</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AH5" s="1">
         <v>0.75</v>
       </c>
-      <c r="AG5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AH5" s="1">
+      <c r="AI5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ5" s="1">
         <v>0</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AK5" s="1">
         <v>0.12</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AL5" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AM5" s="1">
         <v>3</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AN5" s="1">
         <v>0.18</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AO5" s="1">
         <v>0.7</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AP5" s="1">
         <v>0.7</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AQ5" s="1">
         <v>0.97</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AR5" s="1">
         <v>1.86</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AS5" s="1">
         <v>90000</v>
       </c>
     </row>
-    <row r="6" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="D6" s="1">
         <v>1.1850000000000001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6" s="1">
         <v>2.5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>12.8</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>0.7</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>500000</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>78000</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <v>1.67</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="1">
         <v>0.6</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="1">
         <f>6.8+273</f>
         <v>279.8</v>
       </c>
-      <c r="R6" s="1">
+      <c r="T6" s="1">
         <f>6.8+273</f>
         <v>279.8</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Z6" s="1">
         <v>9.81</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AA6" s="1">
         <v>1</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AB6" s="1">
         <v>1E-4</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AC6" s="1">
         <v>0.4</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AD6" s="1">
         <v>0.42</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AE6" s="1">
         <v>0.19</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AF6" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AG6" s="1">
         <v>3.3</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AH6" s="1">
         <v>0.75</v>
       </c>
-      <c r="AG6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AH6" s="1">
+      <c r="AI6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ6" s="1">
         <v>0</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AK6" s="1">
         <v>0.12</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AL6" s="1">
         <v>0.6</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AM6" s="1">
         <v>3</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AN6" s="1">
         <v>0.18</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AO6" s="1">
         <v>0.4</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AP6" s="1">
         <v>0.42</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AQ6" s="1">
         <v>0.97</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AR6" s="1">
         <v>1.86</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AS6" s="1">
         <v>90000</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="1" t="s">
+    <row r="7" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AJ7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AM7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AN7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AO7" s="1" t="s">
+      <c r="AQ7" s="1" t="s">
         <v>45</v>
       </c>
     </row>

--- a/data_VP.xlsx
+++ b/data_VP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>Place</t>
   </si>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>capVPTop</t>
+  </si>
+  <si>
+    <t>HECMechAir</t>
+  </si>
+  <si>
+    <t>VPMech</t>
+  </si>
+  <si>
+    <t>TCov_in</t>
+  </si>
+  <si>
+    <t>VPThScr</t>
   </si>
 </sst>
 </file>
@@ -515,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS7"/>
+  <dimension ref="A1:AW7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,9 +550,10 @@
     <col min="38" max="38" width="7.109375" style="1" customWidth="1"/>
     <col min="39" max="40" width="10.109375" style="1" customWidth="1"/>
     <col min="41" max="41" width="9.109375" style="1"/>
+    <col min="46" max="46" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -676,8 +689,20 @@
       <c r="AS1" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="AT1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -774,7 +799,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -871,7 +896,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -968,7 +993,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1065,7 +1090,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1162,7 +1187,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K7" s="1" t="s">
         <v>13</v>
       </c>

--- a/data_VP.xlsx
+++ b/data_VP.xlsx
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AX1" sqref="AX1"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AT5" sqref="AT5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data_VP.xlsx
+++ b/data_VP.xlsx
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AY6" sqref="AY6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,10 +790,10 @@
         <v>297.05</v>
       </c>
       <c r="V2" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W2" s="1">
-        <v>0.5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="X2" s="1">
         <v>20.5</v>

--- a/data_VP.xlsx
+++ b/data_VP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Place</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>chế</t>
+  </si>
+  <si>
+    <t>VPOut</t>
+  </si>
+  <si>
+    <t>VPTop</t>
   </si>
 </sst>
 </file>
@@ -524,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC7"/>
+  <dimension ref="A1:BE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AV3" sqref="AV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,6 +541,7 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
     <col min="21" max="21" width="9.44140625" customWidth="1"/>
     <col min="23" max="23" width="8.77734375" customWidth="1"/>
     <col min="25" max="25" width="11.88671875" style="1" customWidth="1"/>
@@ -558,7 +565,7 @@
     <col min="58" max="58" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -581,151 +588,157 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -748,162 +761,168 @@
         <v>1310</v>
       </c>
       <c r="H2" s="1">
+        <v>1309</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1310</v>
+      </c>
+      <c r="J2" s="1">
         <v>1314</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>6</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="1">
         <v>0.1</v>
       </c>
-      <c r="K2" s="1">
+      <c r="M2" s="1">
         <v>500000</v>
       </c>
-      <c r="L2" s="1">
+      <c r="N2" s="1">
         <v>14000</v>
       </c>
-      <c r="M2" s="1">
+      <c r="O2" s="1">
         <v>1.67</v>
       </c>
-      <c r="N2" s="1">
+      <c r="P2" s="1">
         <v>0.3</v>
       </c>
-      <c r="O2" s="1">
+      <c r="Q2" s="1">
         <v>0.5</v>
       </c>
-      <c r="P2" s="1">
+      <c r="R2" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="S2" s="1">
         <v>1.4659E-2</v>
       </c>
-      <c r="R2" s="1">
+      <c r="T2" s="1">
         <v>0.5</v>
       </c>
-      <c r="S2" s="1">
+      <c r="U2" s="1">
         <v>298.14999999999998</v>
       </c>
-      <c r="T2" s="1">
+      <c r="V2" s="1">
         <v>298.14999999999998</v>
       </c>
-      <c r="U2" s="1">
+      <c r="W2" s="1">
         <v>297.05</v>
       </c>
-      <c r="V2" s="1">
+      <c r="X2" s="1">
         <v>0.1</v>
       </c>
-      <c r="W2" s="1">
+      <c r="Y2" s="1">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Z2" s="1">
         <v>20.5</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="AA2" s="1">
         <v>2.2109999999999999</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AB2" s="1">
         <v>9.81</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AC2" s="1">
         <v>1</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AD2" s="1">
         <v>1E-4</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AE2" s="1">
         <v>0.5</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AF2" s="1">
         <v>0.4</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AG2" s="1">
         <v>0.4</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AH2" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AI2" s="1">
         <v>2.9</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AJ2" s="1">
         <v>0.75</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AK2" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AL2" s="1">
         <v>0</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AM2" s="1">
         <v>0.12</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AN2" s="1">
         <v>0.4</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AO2" s="1">
         <v>3</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AP2" s="1">
         <v>0.1</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AQ2" s="1">
         <v>0.5</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AR2" s="1">
         <v>0.4</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AS2" s="1">
         <v>0.68</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AT2" s="1">
         <v>1.86</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AU2" s="1">
         <v>18000</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AV2" s="1">
+        <v>1311</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>1305</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>18</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>8314</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>50000</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>22</v>
+      </c>
+      <c r="BE2" s="1">
         <v>1315</v>
       </c>
-      <c r="AU2" s="1">
-        <v>21.5</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>1305</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>18</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>8314</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA2" s="1">
-        <v>50000</v>
-      </c>
-      <c r="BB2" s="1">
-        <v>22</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>1315</v>
-      </c>
     </row>
-    <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="Y3" s="1" t="s">
+    <row r="3" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
